--- a/src/rfs/rnf/participants.xlsx
+++ b/src/rfs/rnf/participants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinp/projects/python-dangerzone/src/rfs/rnf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CD073-D5CF-F74D-B457-47C843E39D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECE9A28-8B26-E94F-A297-14E3A36C104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22700" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>seq</t>
   </si>
@@ -98,6 +98,48 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Yulia_12_09_2022</t>
+  </si>
+  <si>
+    <t>Ilya_12_09_2022</t>
+  </si>
+  <si>
+    <t>Semen_12_09_2022</t>
+  </si>
+  <si>
+    <t>Nikolai_12_09_2022</t>
+  </si>
+  <si>
+    <t>Alexey_13_09_2022</t>
+  </si>
+  <si>
+    <t>Maria_13_09_2022</t>
+  </si>
+  <si>
+    <t>Elena_13_09_2022</t>
+  </si>
+  <si>
+    <t>Liliya_13_09_2022</t>
+  </si>
+  <si>
+    <t>Tatiana_14_09_2022</t>
+  </si>
+  <si>
+    <t>Anna_14_09_2022</t>
+  </si>
+  <si>
+    <t>Denis_14_09_2022</t>
+  </si>
+  <si>
+    <t>Diana_15_09_2022</t>
+  </si>
+  <si>
+    <t>Yulia_15_09_2022</t>
+  </si>
+  <si>
+    <t>Amina_15_09_2022</t>
   </si>
   <si>
     <t>Anastasiya_26_07_2022</t>
@@ -107,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,10 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,19 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -514,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -530,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -538,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -546,15 +589,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -562,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -570,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -578,7 +621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -586,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -594,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -602,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -610,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -618,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -626,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -634,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -642,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -650,7 +693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -658,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -666,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -674,12 +717,124 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
